--- a/Resources/AntibiogramDesMoines.xlsx
+++ b/Resources/AntibiogramDesMoines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/vilailack_kheuakham_va_gov/Documents/AMS Program Manager/Susceptibilities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/rachel_scholten_va_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B31C55-2D3C-4201-BCF3-84F4DE4755E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3028FB1D-88FA-48B5-B4AB-B43E2C88603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -46,6 +49,9 @@
     <t>VA CENTRAL IOWA HEALTHCARE SYSTEM</t>
   </si>
   <si>
+    <t>Jan. 1st, 2024 to Dec. 31st, 2024</t>
+  </si>
+  <si>
     <t>Percent Susceptible</t>
   </si>
   <si>
@@ -250,17 +256,14 @@
     <t>MICROBIOLOGY DEPARTMENT</t>
   </si>
   <si>
-    <t>Jan. 1st, 2023 to Dec. 31st, 2023</t>
-  </si>
-  <si>
-    <t>January 2024</t>
+    <t>February 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -350,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,9 +393,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,26 +428,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,26 +463,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,10 +642,10 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
@@ -691,7 +660,7 @@
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -712,7 +681,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.75">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -733,12 +702,12 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="12.75">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7"/>
@@ -753,7 +722,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="12.75">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -772,7 +741,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="12.75">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -790,66 +759,66 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="12.75">
       <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -862,9 +831,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -882,90 +851,90 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2">
         <v>99</v>
       </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2">
+        <v>75</v>
+      </c>
+      <c r="J11" s="2">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2">
+        <v>94</v>
+      </c>
+      <c r="L11" s="2">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2">
+        <v>75</v>
+      </c>
+      <c r="N11" s="2">
         <v>95</v>
       </c>
-      <c r="G11" s="2">
-        <v>96</v>
-      </c>
-      <c r="H11" s="2">
-        <v>94</v>
-      </c>
-      <c r="I11" s="2">
-        <v>78</v>
-      </c>
-      <c r="J11" s="2">
-        <v>79</v>
-      </c>
-      <c r="K11" s="2">
-        <v>95</v>
-      </c>
-      <c r="L11" s="2">
-        <v>100</v>
-      </c>
-      <c r="M11" s="2">
-        <v>73</v>
-      </c>
-      <c r="N11" s="2">
-        <v>96</v>
-      </c>
       <c r="O11" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P11" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L12" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M12" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N12" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O12" s="2">
         <v>98</v>
@@ -974,36 +943,36 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2">
         <v>100</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G13" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L13" s="2">
         <v>100</v>
@@ -1012,107 +981,107 @@
         <v>87</v>
       </c>
       <c r="N13" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O13" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J14" s="2">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2">
+        <v>89</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2">
         <v>86</v>
       </c>
-      <c r="K14" s="2">
-        <v>98</v>
-      </c>
-      <c r="L14" s="2">
-        <v>74</v>
-      </c>
-      <c r="M14" s="2">
-        <v>88</v>
-      </c>
       <c r="N14" s="2">
         <v>100</v>
       </c>
       <c r="O14" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P14" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>100</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G15" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K15" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L15" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M15" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N15" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O15" s="2">
         <v>100</v>
@@ -1123,7 +1092,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1141,88 +1110,88 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="12.75">
       <c r="G18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2">
         <v>72</v>
       </c>
       <c r="G22" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2">
         <v>100</v>
       </c>
       <c r="I22" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
@@ -1232,79 +1201,79 @@
         <v>97</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N22" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O22" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P22" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="2">
         <v>100</v>
       </c>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2">
         <v>75</v>
       </c>
       <c r="F23" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H23" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I23" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
         <v>75</v>
       </c>
       <c r="L23" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N23" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P23" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="2">
         <v>100</v>
       </c>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="2">
@@ -1312,18 +1281,18 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K24" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2">
@@ -1331,15 +1300,15 @@
       </c>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1350,11 +1319,11 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1362,7 +1331,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1380,15 +1349,15 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="10">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1406,135 +1375,135 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="L36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="6" t="s">
         <v>71</v>
       </c>
@@ -1553,7 +1522,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1567,7 +1536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1585,9 +1554,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDE90BD2B3EC78468439DF3CE5CC2DA9" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79fd54cb3ba8362816d3d9f06b48bec5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56d1e28e-0b8c-416e-a438-03a2e12c3869" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d01caefa82a906ce4cb6cc8c7e8103a3" ns2:_="">
-    <xsd:import namespace="56d1e28e-0b8c-416e-a438-03a2e12c3869"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C88617D5634EF4CBEE6AFF72870EED7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="046ff9d42ad4fbc6a139cf88a57ddc6a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb7c4e70-cfd0-46eb-b4da-09ec787de6f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c13972e4c25d1a8aa0b5ed6038076f" ns2:_="">
+    <xsd:import namespace="bb7c4e70-cfd0-46eb-b4da-09ec787de6f1"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1596,10 +1571,7 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -1608,7 +1580,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56d1e28e-0b8c-416e-a438-03a2e12c3869" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bb7c4e70-cfd0-46eb-b4da-09ec787de6f1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1621,29 +1593,12 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1658,8 +1613,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1748,24 +1703,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6B55E8-D9D9-4DFB-B18D-6F071DA96886}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6B55E8-D9D9-4DFB-B18D-6F071DA96886}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11571F8-E68E-40B1-8D50-85CBFE437A5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1CAEAEC-34A8-4607-A20E-3241C17CBFD0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA8E082-0C91-418D-A207-1A1D1AD84382}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5FDF5F0-83CC-4219-AEA9-51702E56577C}"/>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{e95f1b23-abaf-45ee-821d-b7ab251ab3bf}" enabled="0" method="" siteId="{e95f1b23-abaf-45ee-821d-b7ab251ab3bf}" removed="1"/>
+</clbl:labelList>
 </file>